--- a/rcads/data/xls/31_ResponseOptions.xlsx
+++ b/rcads/data/xls/31_ResponseOptions.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_31_ResponseOptions"/>
   </sheets>
   <definedNames>
-    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$121</definedName>
+    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$130</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2293,6 +2293,150 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0">
+        <v>123</v>
+      </c>
+      <c r="B122" s="0">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0">
+        <v>31</v>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>कभी नहीं</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0">
+        <v>124</v>
+      </c>
+      <c r="B123" s="0">
+        <v>2</v>
+      </c>
+      <c r="C123" s="0">
+        <v>31</v>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>कभी-कभी</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0">
+        <v>125</v>
+      </c>
+      <c r="B124" s="0">
+        <v>3</v>
+      </c>
+      <c r="C124" s="0">
+        <v>31</v>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>अक्सर</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0">
+        <v>126</v>
+      </c>
+      <c r="B125" s="0">
+        <v>4</v>
+      </c>
+      <c r="C125" s="0">
+        <v>31</v>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>हमेशा</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0">
+        <v>127</v>
+      </c>
+      <c r="B126" s="0">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0">
+        <v>32</v>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>ਕਦੇ ਨਹੀਂ</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0">
+        <v>128</v>
+      </c>
+      <c r="B127" s="0">
+        <v>2</v>
+      </c>
+      <c r="C127" s="0">
+        <v>32</v>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>ਕਦੇ-ਕਦੇ</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0">
+        <v>129</v>
+      </c>
+      <c r="B128" s="0">
+        <v>3</v>
+      </c>
+      <c r="C128" s="0">
+        <v>32</v>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>ਅਕਸਰ</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0">
+        <v>130</v>
+      </c>
+      <c r="B129" s="0">
+        <v>4</v>
+      </c>
+      <c r="C129" s="0">
+        <v>31</v>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>हमेषा ही</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0">
+        <v>131</v>
+      </c>
+      <c r="B130" s="0">
+        <v>4</v>
+      </c>
+      <c r="C130" s="0">
+        <v>32</v>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>ਹਮੇਸ਼ਾ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/31_ResponseOptions.xlsx
+++ b/rcads/data/xls/31_ResponseOptions.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_31_ResponseOptions"/>
   </sheets>
   <definedNames>
-    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$130</definedName>
+    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$134</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2437,6 +2437,70 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>132</v>
+      </c>
+      <c r="B131" s="0">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0">
+        <v>38</v>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>Хэзээ чүгүй</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>133</v>
+      </c>
+      <c r="B132" s="0">
+        <v>2</v>
+      </c>
+      <c r="C132" s="0">
+        <v>38</v>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>Хааяа</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>134</v>
+      </c>
+      <c r="B133" s="0">
+        <v>3</v>
+      </c>
+      <c r="C133" s="0">
+        <v>38</v>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>Ихэнхдээ</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>135</v>
+      </c>
+      <c r="B134" s="0">
+        <v>4</v>
+      </c>
+      <c r="C134" s="0">
+        <v>38</v>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>Үргэлж</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/31_ResponseOptions.xlsx
+++ b/rcads/data/xls/31_ResponseOptions.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_31_ResponseOptions"/>
   </sheets>
   <definedNames>
-    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$134</definedName>
+    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$138</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2501,6 +2501,70 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>136</v>
+      </c>
+      <c r="B135" s="0">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0">
+        <v>2</v>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>أبدا</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>137</v>
+      </c>
+      <c r="B136" s="0">
+        <v>2</v>
+      </c>
+      <c r="C136" s="0">
+        <v>2</v>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>أحيانا</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>138</v>
+      </c>
+      <c r="B137" s="0">
+        <v>3</v>
+      </c>
+      <c r="C137" s="0">
+        <v>2</v>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>غالبا</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>139</v>
+      </c>
+      <c r="B138" s="0">
+        <v>4</v>
+      </c>
+      <c r="C138" s="0">
+        <v>2</v>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>دائما</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/31_ResponseOptions.xlsx
+++ b/rcads/data/xls/31_ResponseOptions.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_31_ResponseOptions"/>
   </sheets>
   <definedNames>
-    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$138</definedName>
+    <definedName name="_31_ResponseOptions">'_31_ResponseOptions'!$A$1:$D$150</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2565,6 +2565,198 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>140</v>
+      </c>
+      <c r="B139" s="0">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0">
+        <v>40</v>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>कधीच नाही</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>141</v>
+      </c>
+      <c r="B140" s="0">
+        <v>2</v>
+      </c>
+      <c r="C140" s="0">
+        <v>40</v>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>कधीकधी</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>142</v>
+      </c>
+      <c r="B141" s="0">
+        <v>3</v>
+      </c>
+      <c r="C141" s="0">
+        <v>40</v>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>वारंवार</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>143</v>
+      </c>
+      <c r="B142" s="0">
+        <v>4</v>
+      </c>
+      <c r="C142" s="0">
+        <v>40</v>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>नेहमीच</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>144</v>
+      </c>
+      <c r="B143" s="0">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0">
+        <v>27</v>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>Никад</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>145</v>
+      </c>
+      <c r="B144" s="0">
+        <v>2</v>
+      </c>
+      <c r="C144" s="0">
+        <v>27</v>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>Понекад</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>146</v>
+      </c>
+      <c r="B145" s="0">
+        <v>3</v>
+      </c>
+      <c r="C145" s="0">
+        <v>27</v>
+      </c>
+      <c r="D145" s="0" t="inlineStr">
+        <is>
+          <t>Често</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>147</v>
+      </c>
+      <c r="B146" s="0">
+        <v>4</v>
+      </c>
+      <c r="C146" s="0">
+        <v>27</v>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t>Стално</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>148</v>
+      </c>
+      <c r="B147" s="0">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0">
+        <v>39</v>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t>Không bao giờ</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>149</v>
+      </c>
+      <c r="B148" s="0">
+        <v>2</v>
+      </c>
+      <c r="C148" s="0">
+        <v>39</v>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t>Thỉnh thoảng</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>150</v>
+      </c>
+      <c r="B149" s="0">
+        <v>3</v>
+      </c>
+      <c r="C149" s="0">
+        <v>39</v>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>Thường xuyên</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>151</v>
+      </c>
+      <c r="B150" s="0">
+        <v>4</v>
+      </c>
+      <c r="C150" s="0">
+        <v>39</v>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>Luôn luôn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
